--- a/VGALightStripDetection/testbat/buglist.xlsx
+++ b/VGALightStripDetection/testbat/buglist.xlsx
@@ -183,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,20 +204,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,6 +269,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -233,40 +293,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,8 +308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,16 +324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,30 +341,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -356,31 +356,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,115 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +547,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,50 +604,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +630,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -638,15 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,7 +667,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,128 +676,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,12 +809,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1170,7 +1164,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1339,13 +1333,13 @@
       </c>
     </row>
     <row r="14" ht="27" spans="2:5">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1353,10 +1347,10 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
     </row>

--- a/VGALightStripDetection/testbat/buglist.xlsx
+++ b/VGALightStripDetection/testbat/buglist.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Item</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
   <si>
     <t>Issue Description</t>
@@ -176,6 +182,96 @@
   <si>
     <t>1.尝试捕捉terminate事件，发现此时程式堆栈数据已经被清理
 2.临时屏蔽控制台的关闭按钮</t>
+  </si>
+  <si>
+    <t>2.0.0.15</t>
+  </si>
+  <si>
+    <t>测试中途出现 i2c error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持续关注
+</t>
+  </si>
+  <si>
+    <t>显卡贴膜导致反光强烈，无法抓取到对应颜色</t>
+  </si>
+  <si>
+    <t>线束遮挡灯珠</t>
+  </si>
+  <si>
+    <t>在上层机台中，测试蓝灯出现干扰过严重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首先是因为放置在上层机台的camera 可以拍到OP，加上camera曝光设定-7, 饱和度设定到了128,可能导致拍到的画面偏蓝。OP在作业时被camera捕捉，造成前后帧画面差异；
+其次是因为程式在捕捉灯带轮廓时，使用的颜色为蓝色。以上两种因素的重合，让获取到的ROI区域变大，所以在测试蓝灯的过程中出现了一些噪音干扰。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通过对现有测试过程的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行对比，初步的解决方案是在捕捉灯带轮廓位置阶段，使用对比度更高的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，来确定灯带的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ROI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -183,12 +279,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,10 +299,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +373,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -226,125 +449,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -356,187 +471,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,60 +662,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,7 +693,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +747,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,137 +782,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +927,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -872,6 +996,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>314960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="00_0002_original"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21240750" y="8096250"/>
+          <a:ext cx="790575" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,19 +1328,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
-    <col min="2" max="6" width="50.625" customWidth="1"/>
+    <col min="2" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
+    <row r="1" ht="15.75" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1192,172 +1362,234 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="2:5">
-      <c r="B2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" ht="27" spans="4:7">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="1:5">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="121.5" spans="2:6">
-      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" ht="121.5" spans="4:8">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="27" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="5" ht="27" spans="4:8">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="229.5" spans="2:5">
-      <c r="B6" s="1" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="6" ht="229.5" spans="4:7">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="2:5">
-      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="8" ht="40.5" spans="4:7">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G12" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="2:5">
-      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="14" ht="27" spans="4:7">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" ht="40.5" spans="2:4">
-      <c r="B15" t="s">
+      <c r="E14" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="15" ht="40.5" spans="4:6">
+      <c r="D15" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="2:8">
+      <c r="B16" s="5">
+        <v>44396</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5">
+        <v>44397</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5">
+        <v>44398</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" ht="94.5" spans="2:6">
+      <c r="B19" s="5">
+        <v>44399</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VGALightStripDetection/testbat/buglist.xlsx
+++ b/VGALightStripDetection/testbat/buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -273,16 +273,28 @@
       <t>区域</t>
     </r>
   </si>
+  <si>
+    <t>2.0.0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strix 系列机种在此次测试中集中出现11号绿灯验不过情况
+均是因11号灯的轮廓所在区域,Green 均值数据低于设定阈值导致判定为fail
+PPID 为210787971600606的卡在6个机台均进行了复测,表现为首次测试fail, 复测后pass.对复测数据进行验证发现,仅零星轮廓所在区域 Green 均值数据略高于最低阈值
+</t>
+  </si>
+  <si>
+    <t>因相机曝光设置比较低,抓到的画面较暗, 相对的绿色对比度也有所降低,所以对该问题进行持续关注,视情况降低绿灯阈值</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -306,7 +318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +326,104 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,81 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -413,29 +448,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,13 +483,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,132 +639,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,31 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,21 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,11 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +725,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +741,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,149 +782,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +948,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1328,12 +1343,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1583,6 +1598,20 @@
       </c>
       <c r="F19" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="108" spans="2:6">
+      <c r="B20" s="5">
+        <v>44405</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/VGALightStripDetection/testbat/buglist.xlsx
+++ b/VGALightStripDetection/testbat/buglist.xlsx
@@ -15,8 +15,36 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_0D4664B44C044595A765320BF700E0B4" descr="00_0002_original"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21240750" y="8096250"/>
+          <a:ext cx="790575" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Item</t>
   </si>
@@ -285,6 +313,43 @@
   <si>
     <t>因相机曝光设置比较低,抓到的画面较暗, 相对的绿色对比度也有所降低,所以对该问题进行持续关注,视情况降低绿灯阈值</t>
   </si>
+  <si>
+    <t>2.0.0.17</t>
+  </si>
+  <si>
+    <t>在测单颗灯时错帧1
+[0] Get Frame
+[11] Get 0 Frame
+[35] Get 1 Frame
+[36] Get 2 Frame
+......
+[0] Get Frame
+[49] Get 0 Frame
+[64] Get 1 Frame
+[63] Get 2 Frame</t>
+  </si>
+  <si>
+    <t>获取background 耗时82ms; 获取foreground 耗时176ms;可能的原因是A线程在几十毫秒前刚从相机里要完图，B线程后脚就过来再问相机要图，相机就索性给了同一张图。</t>
+  </si>
+  <si>
+    <t>P1：在亮灭灯后，delay 100ms, 然后再去抓 3 帧
+P2: 直接取抓第5帧，但万一再遇到前后脚拿图问题的话，不保证时间上是否同步</t>
+  </si>
+  <si>
+    <t>在获取灯带ROI时错帧2
+[39] Get Frame
+[34] Get 0 Frame
+[37] Get 1 Frame
+[34] Get 2 Frame
+......
+[20] Get Frame
+[39] Get 0 Frame
+[62] Get 1 Frame
+[63] Get 2 Frame</t>
+  </si>
+  <si>
+    <t>获取background 耗时105ms; 获取foreground 耗时164ms;从图片中能看到background 中残留着上一轮未灭完的蓝灯</t>
+  </si>
 </sst>
 </file>
 
@@ -292,8 +357,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -317,22 +382,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +422,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -361,61 +444,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,9 +467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +497,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,187 +548,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,8 +745,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,11 +790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,21 +812,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,6 +830,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,137 +859,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +1016,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,49 +1082,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>314960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="00_0002_original"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21240750" y="8096250"/>
-          <a:ext cx="790575" cy="305435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1343,19 +1371,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.375" style="2" customWidth="1"/>
     <col min="4" max="8" width="50.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
@@ -1547,7 +1576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="2:8">
+    <row r="16" ht="27" spans="2:9">
       <c r="B16" s="5">
         <v>44396</v>
       </c>
@@ -1559,6 +1588,10 @@
       </c>
       <c r="H16" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="I16" t="str">
+        <f>_xlfn.DISPIMG("ID_0D4664B44C044595A765320BF700E0B4",1)</f>
+        <v>=DISPIMG("ID_0D4664B44C044595A765320BF700E0B4",1)</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1607,18 +1640,52 @@
       <c r="C20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="21" ht="148.5" spans="2:7">
+      <c r="B21" s="5">
+        <v>44420</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="135" spans="2:7">
+      <c r="B22" s="5">
+        <v>44420</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G21:G22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VGALightStripDetection/testbat/buglist.xlsx
+++ b/VGALightStripDetection/testbat/buglist.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -350,6 +350,27 @@
   <si>
     <t>获取background 耗时105ms; 获取foreground 耗时164ms;从图片中能看到background 中残留着上一轮未灭完的蓝灯</t>
   </si>
+  <si>
+    <t>2.0.1.8</t>
+  </si>
+  <si>
+    <t>测试TUF-RX6800XT 100% 1006
+debug 显示 call PADL_Display_WriteAndReadI2C return -5
+/// Invalid ADL index passed
+#define ADL_ERR_INVALID_ADL_IDX            -5
+将问题卡插入开发平台后报1006; 
+将之前开发用的TUF-RX6800 插入开发平台后也突然报1006;将借到的两张TUF-RX6800XT 插入开发平台也报1006;
+用历史版本对开发用的TUF-RX6800 进行复测, 报1006(之前是OK的);
+将开发用的TUF-RX6800 插入Jake 测试平台, 安装驱动后, 测试pass;
+将开发用的TUF-RX6800 插入开发平台, 安装最新驱动, 同时卸载A卡旧版本驱动, 测试pass</t>
+  </si>
+  <si>
+    <t>从复验过程上看, 应该是驱动出问题了;
+对于出问题的TUF-RX6800XT测试1006; 再验开发用的TUF-6800测试1006; 这一现象来看, 推测应该是TUF-RX6800XT 引起驱动识别混乱, 造成后续全部集中都测不过</t>
+  </si>
+  <si>
+    <t>在测试系统盘上, 重新安装A卡驱动, 同时设置删除历史驱动</t>
+  </si>
 </sst>
 </file>
 
@@ -357,8 +378,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -382,6 +403,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -407,7 +464,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,111 +544,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,187 +569,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,39 +760,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,21 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -812,6 +785,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +821,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,137 +880,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,13 +1036,10 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1371,12 +1389,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1643,7 +1661,7 @@
       <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1654,13 +1672,13 @@
       <c r="C21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1671,13 +1689,30 @@
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="256.5" spans="2:7">
+      <c r="B23" s="5">
+        <v>44540</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
